--- a/src/analysis_examples/circadb/results_lomb/cosinor_10355893_epha4_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10355893_epha4_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2869043627382841, 0.36765327334167897]</t>
+          <t>[0.2867015317609823, 0.3678561043189808]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.110223024625157e-13</v>
+        <v>1.225686219186173e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>1.110223024625157e-13</v>
+        <v>1.225686219186173e-13</v>
       </c>
       <c r="O2" t="n">
         <v>-1.509473947670772</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.647842392873926, -1.3711055024676178]</t>
+          <t>[-1.635263443310003, -1.3836844520315408]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0.4583077206670338</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.431772971815811, 0.4848424695182567]</t>
+          <t>[0.43177063678290273, 0.48484480455116497]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>5.825825825825987</v>
       </c>
       <c r="X2" t="n">
-        <v>5.291791791791938</v>
+        <v>5.340340340340488</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.359859859860037</v>
+        <v>6.311311311311487</v>
       </c>
     </row>
   </sheetData>
